--- a/Problemsets Python/PS_Nr_2_Python/data/Kite/Kite.xlsx
+++ b/Problemsets Python/PS_Nr_2_Python/data/Kite/Kite.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HiWi ITOP 2020\SAPS-BSDA-Kurs\Problemsets Python\PS_Nr_2_Python\data\Kite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECA448-C483-4503-8F43-12144FEC101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491EB541-EE05-479D-B989-3071170134DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="900" windowWidth="16770" windowHeight="19815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21705" yWindow="990" windowWidth="35130" windowHeight="19815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,15 +398,15 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,20 +414,20 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -438,190 +438,54 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
         <v>9</v>
       </c>
     </row>
